--- a/output_pdfs/Resumen_Resultados.xlsx
+++ b/output_pdfs/Resumen_Resultados.xlsx
@@ -14,18 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Cedula</t>
-  </si>
-  <si>
-    <t>Calidad</t>
-  </si>
-  <si>
-    <t>Municipio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CEDULA</t>
+  </si>
+  <si>
+    <t>CALIDAD</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>VEREDA</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>RETIROS</t>
+  </si>
+  <si>
+    <t>PODAS</t>
+  </si>
+  <si>
+    <t>GUADUAS</t>
+  </si>
+  <si>
+    <t>ROCERIA</t>
+  </si>
+  <si>
+    <t>COMENTARIO_EDEQ</t>
+  </si>
+  <si>
+    <t>COMENTARIO_USUARIO</t>
   </si>
   <si>
     <t>Autorizacion</t>
@@ -74,6 +107,27 @@
   </si>
   <si>
     <t>Cali</t>
+  </si>
+  <si>
+    <t>BRETANA</t>
+  </si>
+  <si>
+    <t>GLORIETA</t>
+  </si>
+  <si>
+    <t>CALARCS</t>
+  </si>
+  <si>
+    <t>Esta si es</t>
+  </si>
+  <si>
+    <t>Prueba 2, forestal multiple</t>
+  </si>
+  <si>
+    <t>Prueba 1 guadual</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>5A8B9762-6CF2-4F4C-B480-53F513448E46_21-02-2025.jpg</t>
@@ -452,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,74 +537,200 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>4.534873</v>
+      </c>
+      <c r="H2">
+        <v>-75.669659</v>
+      </c>
+      <c r="I2">
+        <v>52636</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>4.538400291716</v>
+      </c>
+      <c r="H3">
+        <v>-75.65459931998301</v>
+      </c>
+      <c r="I3">
+        <v>5230</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>4.548547004605</v>
+      </c>
+      <c r="H4">
+        <v>-75.674705996958</v>
+      </c>
+      <c r="I4">
+        <v>5235</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>110</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/output_pdfs/Resumen_Resultados.xlsx
+++ b/output_pdfs/Resumen_Resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -148,7 +148,10 @@
     <t>A31495EF-0E88-439C-931C-140F0AE83240_21-02-2025.jpg</t>
   </si>
   <si>
-    <t>Éxito</t>
+    <t>Fallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error en generación Word: replace() argument 2 must be str, not int. </t>
   </si>
 </sst>
 </file>
@@ -626,6 +629,9 @@
       <c r="R2" t="s">
         <v>44</v>
       </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
@@ -679,6 +685,9 @@
       <c r="R3" t="s">
         <v>44</v>
       </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
@@ -731,6 +740,9 @@
       </c>
       <c r="R4" t="s">
         <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/output_pdfs/Resumen_Resultados.xlsx
+++ b/output_pdfs/Resumen_Resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -43,6 +43,12 @@
     <t>OT</t>
   </si>
   <si>
+    <t>Evento_SP7</t>
+  </si>
+  <si>
+    <t>LIDER</t>
+  </si>
+  <si>
     <t>RETIROS</t>
   </si>
   <si>
@@ -61,12 +67,21 @@
     <t>COMENTARIO_USUARIO</t>
   </si>
   <si>
+    <t>disposicio</t>
+  </si>
+  <si>
+    <t>Fecha_acci</t>
+  </si>
+  <si>
     <t>Autorizacion</t>
   </si>
   <si>
     <t>Satisfaccion</t>
   </si>
   <si>
+    <t>FIRMA_LIDER</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -118,6 +133,36 @@
     <t>CALARCS</t>
   </si>
   <si>
+    <t>ARLINSON ARBELAEZ BERMUDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS ARLES BERNAL</t>
+  </si>
+  <si>
+    <t>DARWIN ALEXIS SANCHEZ</t>
+  </si>
+  <si>
+    <t>EDDUIN OJEDA LATORRE</t>
+  </si>
+  <si>
+    <t>EDISSON FERNEY CARDENAS</t>
+  </si>
+  <si>
+    <t>FREDDY ALONSO GONZALEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL ADOLFO VERGARA BERMUDEZ</t>
+  </si>
+  <si>
+    <t>GEINNER CARDENAS</t>
+  </si>
+  <si>
+    <t>GERARDO RUBIANO</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO GUAPACHA</t>
+  </si>
+  <si>
     <t>Esta si es</t>
   </si>
   <si>
@@ -130,6 +175,12 @@
     <t>Ok</t>
   </si>
   <si>
+    <t>A cargo de EDEQ</t>
+  </si>
+  <si>
+    <t>En el sitio</t>
+  </si>
+  <si>
     <t>5A8B9762-6CF2-4F4C-B480-53F513448E46_21-02-2025.jpg</t>
   </si>
   <si>
@@ -148,16 +199,52 @@
     <t>A31495EF-0E88-439C-931C-140F0AE83240_21-02-2025.jpg</t>
   </si>
   <si>
+    <t>ARLINSON ARBELAEZ BERMUDEZ.jpg</t>
+  </si>
+  <si>
+    <t>CARLOS ARLES BERNAL.jpg</t>
+  </si>
+  <si>
+    <t>DARWIN ALEXIS SANCHEZ.jpg</t>
+  </si>
+  <si>
+    <t>EDDUIN OJEDA LATORRE.jpg</t>
+  </si>
+  <si>
+    <t>EDISSON FERNEY CARDENAS.jpg</t>
+  </si>
+  <si>
+    <t>FREDDY ALONSO GONZALEZ.jpg</t>
+  </si>
+  <si>
+    <t>GABRIEL ADOLFO VERGARA BERMUDEZ.jpg</t>
+  </si>
+  <si>
+    <t>GEINNER CARDENAS.jpg</t>
+  </si>
+  <si>
+    <t>GERARDO RUBIANO.jpg</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO GUAPACHA.jpg</t>
+  </si>
+  <si>
     <t>Fallo</t>
   </si>
   <si>
-    <t xml:space="preserve">Error en generación Word: replace() argument 2 must be str, not int. </t>
+    <t>Éxito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error en generación Word: [Errno 13] Permission denied: 'output_pdfs\\documento_0.docx'. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -210,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,13 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,25 +661,40 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>4.534873</v>
@@ -602,55 +705,67 @@
       <c r="I2">
         <v>52636</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>4.538400291716</v>
@@ -658,55 +773,64 @@
       <c r="H3">
         <v>-75.65459931998301</v>
       </c>
-      <c r="I3">
-        <v>5230</v>
-      </c>
       <c r="J3">
+        <v>5250001235</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>4.548547004605</v>
@@ -717,32 +841,505 @@
       <c r="I4">
         <v>5235</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>41</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>110</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>4.534873</v>
+      </c>
+      <c r="H5">
+        <v>-75.669659</v>
+      </c>
+      <c r="I5">
+        <v>52636</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>4.538400291716</v>
+      </c>
+      <c r="H6">
+        <v>-75.65459931998301</v>
+      </c>
+      <c r="J6">
+        <v>5250001235</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="R4" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>4.548547004605</v>
+      </c>
+      <c r="H7">
+        <v>-75.674705996958</v>
+      </c>
+      <c r="I7">
+        <v>5235</v>
+      </c>
+      <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>4.534873</v>
+      </c>
+      <c r="H8">
+        <v>-75.669659</v>
+      </c>
+      <c r="I8">
+        <v>52636</v>
+      </c>
+      <c r="K8" t="s">
         <v>45</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>4.538400291716</v>
+      </c>
+      <c r="H9">
+        <v>-75.65459931998301</v>
+      </c>
+      <c r="J9">
+        <v>5250001235</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>4.548547004605</v>
+      </c>
+      <c r="H10">
+        <v>-75.674705996958</v>
+      </c>
+      <c r="I10">
+        <v>5235</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>4.534873</v>
+      </c>
+      <c r="H11">
+        <v>-75.669659</v>
+      </c>
+      <c r="I11">
+        <v>52636</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="2">
+        <v>45709</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
